--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.338536018053302</v>
+        <v>0.4670143626189159</v>
       </c>
       <c r="D2">
-        <v>0.7350016177816645</v>
+        <v>0.6450817842442591</v>
       </c>
       <c r="E2">
         <v>0.8461984187531689</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.5583494861697312</v>
+        <v>0.6273349441042665</v>
       </c>
       <c r="D3">
-        <v>0.576680206531067</v>
+        <v>0.5368969243698369</v>
       </c>
       <c r="E3">
         <v>0.8461984187531689</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.049619779443715</v>
+        <v>1.125520101214776</v>
       </c>
       <c r="D4">
-        <v>0.2940440142091254</v>
+        <v>0.2724980123814509</v>
       </c>
       <c r="E4">
         <v>0.8461984187531689</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.2470561794515909</v>
+        <v>0.2985078904257442</v>
       </c>
       <c r="D5">
-        <v>0.8048949505948324</v>
+        <v>0.7681168213801954</v>
       </c>
       <c r="E5">
         <v>0.8461984187531689</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.19624009617874</v>
+        <v>0.1996948759527565</v>
       </c>
       <c r="D6">
-        <v>0.8444459942140448</v>
+        <v>0.8435535027428456</v>
       </c>
       <c r="E6">
         <v>0.8412209509184591</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.5105624401821728</v>
+        <v>0.6670507879741072</v>
       </c>
       <c r="D7">
-        <v>0.6097245993986986</v>
+        <v>0.5116760357180099</v>
       </c>
       <c r="E7">
         <v>0.8412209509184591</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.1450623491362697</v>
+        <v>-0.1473036109708511</v>
       </c>
       <c r="D8">
-        <v>0.8846790559161548</v>
+        <v>0.8842340124100734</v>
       </c>
       <c r="E8">
         <v>0.8412209509184591</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.3523163140019525</v>
+        <v>0.3935165975158829</v>
       </c>
       <c r="D9">
-        <v>0.7246452715830687</v>
+        <v>0.6977257961456327</v>
       </c>
       <c r="E9">
         <v>0.8384232020708986</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.3296008142218334</v>
+        <v>-0.2884709506476925</v>
       </c>
       <c r="D10">
-        <v>0.741742720513777</v>
+        <v>0.7756867186111696</v>
       </c>
       <c r="E10">
         <v>0.8384232020708986</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.6839599667548658</v>
+        <v>-0.7154783907819404</v>
       </c>
       <c r="D11">
-        <v>0.494094829343358</v>
+        <v>0.4818386387408213</v>
       </c>
       <c r="E11">
         <v>0.8331164768149221</v>
